--- a/Tema3/MMOtema3.xlsx
+++ b/Tema3/MMOtema3.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9000" firstSheet="1" activeTab="4"/>
+    <workbookView windowWidth="23040" windowHeight="9000" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Maxmin Pure" sheetId="7" r:id="rId1"/>
@@ -548,7 +548,7 @@
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -568,13 +568,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF000080"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1071,148 +1064,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1598,7 +1591,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G35"/>
+  <dimension ref="A1:G36"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1673,7 +1666,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" ht="15.15" spans="1:1">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -1706,7 +1699,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="17" ht="15.15"/>
+    <row r="19" ht="15.15" spans="1:1">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -1813,7 +1807,8 @@
         <v>22</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
+    <row r="26" ht="15.15"/>
+    <row r="28" ht="15.15" spans="1:1">
       <c r="A28" t="s">
         <v>31</v>
       </c>
@@ -1908,6 +1903,7 @@
       <c r="F35" s="12"/>
       <c r="G35" s="12"/>
     </row>
+    <row r="36" ht="15.15"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -1917,7 +1913,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G31"/>
+  <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1992,7 +1988,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" ht="15.15" spans="1:1">
       <c r="A14" t="s">
         <v>47</v>
       </c>
@@ -2025,7 +2021,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="17" ht="15.15"/>
+    <row r="19" ht="15.15" spans="1:1">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -2098,7 +2095,8 @@
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
+    <row r="24" ht="15.15"/>
+    <row r="26" ht="15.15" spans="1:1">
       <c r="A26" t="s">
         <v>31</v>
       </c>
@@ -2173,6 +2171,7 @@
       <c r="F31" s="12"/>
       <c r="G31" s="12"/>
     </row>
+    <row r="32" ht="15.15"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -2435,7 +2434,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G37"/>
+  <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2510,7 +2509,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" ht="15.15" spans="1:1">
       <c r="A14" t="s">
         <v>47</v>
       </c>
@@ -2543,7 +2542,8 @@
         <v>0.598070573006907</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="17" ht="15.15"/>
+    <row r="19" ht="15.15" spans="1:1">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -2650,7 +2650,8 @@
         <v>85</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
+    <row r="26" ht="15.15"/>
+    <row r="28" ht="15.15" spans="1:1">
       <c r="A28" t="s">
         <v>31</v>
       </c>
@@ -2835,6 +2836,7 @@
         <v>0</v>
       </c>
     </row>
+    <row r="38" ht="15.15"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -2844,9 +2846,9 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G35"/>
+  <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
@@ -2919,7 +2921,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" ht="15.15" spans="1:1">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -2952,7 +2954,8 @@
         <v>0.598070573006906</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="17" ht="15.15"/>
+    <row r="19" ht="15.15" spans="1:1">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -3025,7 +3028,8 @@
         <v>85</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
+    <row r="24" ht="15.15"/>
+    <row r="26" ht="15.15" spans="1:1">
       <c r="A26" t="s">
         <v>31</v>
       </c>
@@ -3210,6 +3214,7 @@
         <v>0.19878680872207</v>
       </c>
     </row>
+    <row r="36" ht="15.15"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -3221,7 +3226,7 @@
   <sheetPr/>
   <dimension ref="A2:M31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
